--- a/score_traitor/data/data_origin/2019河北理科.xlsx
+++ b/score_traitor/data/data_origin/2019河北理科.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunyue/project_personal/my_project/score_traitor/data/data_origin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6897C47-C52D-004C-8CF0-538C98CBCFAA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1965B40-29A8-4A43-83FE-4B0BCE17CF3F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="394">
   <si>
     <t>university</t>
   </si>
@@ -1199,6 +1199,10 @@
   </si>
   <si>
     <t xml:space="preserve">中央民族大学(北京市) </t>
+  </si>
+  <si>
+    <t>yw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1610,7 +1614,7 @@
   <dimension ref="A1:F390"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1626,7 +1630,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>393</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
